--- a/Viable Titre/SLM1042_SLM1043_VT_14-08.xlsx
+++ b/Viable Titre/SLM1042_SLM1043_VT_14-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>Titre</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +525,7 @@
       <c r="J2" t="n">
         <v>254545454.5454545</v>
       </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,6 +562,7 @@
       <c r="J3" t="n">
         <v>286363636.3636363</v>
       </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,6 +599,7 @@
       <c r="J4" t="n">
         <v>231818181.8181818</v>
       </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,6 +636,7 @@
       <c r="J5" t="n">
         <v>304545454.5454545</v>
       </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -664,6 +673,7 @@
       <c r="J6" t="n">
         <v>213636363.6363636</v>
       </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -700,6 +710,7 @@
       <c r="J7" t="n">
         <v>286363636.3636363</v>
       </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -736,6 +747,7 @@
       <c r="J8" t="n">
         <v>295454545.4545454</v>
       </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,6 +784,7 @@
       <c r="J9" t="n">
         <v>209090909.090909</v>
       </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -808,6 +821,7 @@
       <c r="J10" t="n">
         <v>263636363.6363636</v>
       </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -844,6 +858,7 @@
       <c r="J11" t="n">
         <v>277272727.2727273</v>
       </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -880,6 +895,7 @@
       <c r="J12" t="n">
         <v>254545454.5454545</v>
       </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -892,46 +908,232 @@
           <t>LB</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10e-7</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10e-6</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>213636363.6363636</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SLM1043 #5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1909.090909090909</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SLM1042 #5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>954.5454545454544</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SLM1042 #5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>954.5454545454544</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SLM1042 #5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9545.454545454544</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SLM1042 #5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10e-2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>213636363.6363636</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>249.99999999999994</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
